--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="122">
   <si>
     <t>土地坐落</t>
   </si>
@@ -229,6 +229,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中美矽晶製品股份有限公 司</t>
   </si>
   <si>
@@ -245,6 +254,9 @@
   </si>
   <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>2011-11-28</t>
   </si>
   <si>
     <t>名</t>
@@ -1366,13 +1378,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1391,13 +1403,22 @@
       <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -1414,13 +1435,22 @@
       <c r="G2" s="2">
         <v>1410</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1437,13 +1467,22 @@
       <c r="G3" s="2">
         <v>21200</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -1460,13 +1499,22 @@
       <c r="G4" s="2">
         <v>41990</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -1478,18 +1526,27 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2">
         <v>1638859.32</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -1505,6 +1562,15 @@
       </c>
       <c r="G6" s="2">
         <v>1508000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2">
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -1522,22 +1588,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1545,14 +1611,14 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1562,22 +1628,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1595,13 +1661,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1609,10 +1675,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1623,10 +1689,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -1637,10 +1703,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1651,10 +1717,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1665,10 +1731,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -1679,10 +1745,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -1693,10 +1759,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -1707,10 +1773,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -1721,10 +1787,10 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -1735,10 +1801,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
@@ -1749,10 +1815,10 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -1763,10 +1829,10 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -1777,13 +1843,13 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1791,10 +1857,10 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
@@ -1805,10 +1871,10 @@
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
@@ -1819,10 +1885,10 @@
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
@@ -1833,10 +1899,10 @@
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -1847,10 +1913,10 @@
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -1861,10 +1927,10 @@
         <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
@@ -1875,10 +1941,10 @@
         <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -1889,10 +1955,10 @@
         <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>21</v>
@@ -1903,10 +1969,10 @@
         <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
@@ -1917,10 +1983,10 @@
         <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
@@ -1931,10 +1997,10 @@
         <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>39</v>
@@ -1945,10 +2011,10 @@
         <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
@@ -1959,10 +2025,10 @@
         <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
@@ -1973,10 +2039,10 @@
         <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -1987,10 +2053,10 @@
         <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -2001,10 +2067,10 @@
         <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>

--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="124">
   <si>
     <t>土地坐落</t>
   </si>
@@ -229,6 +229,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -238,10 +241,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>中美矽晶製品股份有限公 司</t>
-  </si>
-  <si>
-    <t>聯成化學科技股份有限公 司</t>
+    <t>中美矽晶製品股份有限公司</t>
+  </si>
+  <si>
+    <t>聯成化學科技股份有限公司</t>
   </si>
   <si>
     <t>凌陽科技股份有限公司</t>
@@ -254,6 +257,9 @@
   </si>
   <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-28</t>
@@ -1378,13 +1384,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1412,13 +1418,16 @@
       <c r="J1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -1436,21 +1445,24 @@
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
+        <v>80</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
         <v>908</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1468,21 +1480,24 @@
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2">
+        <v>80</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
         <v>908</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -1500,21 +1515,24 @@
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2">
+        <v>80</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
         <v>908</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -1526,27 +1544,30 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2">
         <v>1638859.32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2">
+        <v>80</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -1564,12 +1585,15 @@
         <v>1508000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2">
+        <v>80</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
         <v>908</v>
       </c>
     </row>
@@ -1588,22 +1612,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1611,14 +1635,14 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1628,22 +1652,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1661,13 +1685,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1675,10 +1699,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1689,10 +1713,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -1703,10 +1727,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1717,10 +1741,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1731,10 +1755,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -1745,10 +1769,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -1759,10 +1783,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -1773,10 +1797,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -1787,10 +1811,10 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -1801,10 +1825,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
@@ -1815,10 +1839,10 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -1829,10 +1853,10 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -1843,13 +1867,13 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1857,10 +1881,10 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
@@ -1871,10 +1895,10 @@
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
@@ -1885,10 +1909,10 @@
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
@@ -1899,10 +1923,10 @@
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -1913,10 +1937,10 @@
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -1927,10 +1951,10 @@
         <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
@@ -1941,10 +1965,10 @@
         <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -1955,10 +1979,10 @@
         <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>21</v>
@@ -1969,10 +1993,10 @@
         <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
@@ -1983,10 +2007,10 @@
         <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
@@ -1997,10 +2021,10 @@
         <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>39</v>
@@ -2011,10 +2035,10 @@
         <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
@@ -2025,10 +2049,10 @@
         <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
@@ -2039,10 +2063,10 @@
         <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -2053,10 +2077,10 @@
         <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -2067,10 +2091,10 @@
         <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>

--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="129">
   <si>
     <t>土地坐落</t>
   </si>
@@ -232,6 +232,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -241,6 +244,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中美矽晶製品股份有限公司</t>
   </si>
   <si>
@@ -262,7 +271,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-28</t>
+  </si>
+  <si>
+    <t>tmp2e4a1</t>
   </si>
   <si>
     <t>名</t>
@@ -1384,13 +1399,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1421,13 +1436,22 @@
       <c r="K1" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -1445,24 +1469,33 @@
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2">
+        <v>84</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
         <v>908</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1480,24 +1513,33 @@
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2">
+        <v>84</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
         <v>908</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -1515,24 +1557,33 @@
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2">
+        <v>84</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
         <v>908</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -1544,30 +1595,39 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G5" s="2">
         <v>1638859.32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2">
+        <v>84</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2">
         <v>908</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -1585,16 +1645,25 @@
         <v>1508000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2">
+        <v>84</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2">
         <v>908</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1612,22 +1681,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1635,14 +1704,14 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1652,22 +1721,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1685,13 +1754,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1699,10 +1768,10 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1713,10 +1782,10 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -1727,10 +1796,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -1741,10 +1810,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -1755,10 +1824,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -1769,10 +1838,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -1783,10 +1852,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -1797,10 +1866,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -1811,10 +1880,10 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -1825,10 +1894,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
@@ -1839,10 +1908,10 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -1853,10 +1922,10 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -1867,13 +1936,13 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1881,10 +1950,10 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
@@ -1895,10 +1964,10 @@
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
@@ -1909,10 +1978,10 @@
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
@@ -1923,10 +1992,10 @@
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -1937,10 +2006,10 @@
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -1951,10 +2020,10 @@
         <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
@@ -1965,10 +2034,10 @@
         <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>21</v>
@@ -1979,10 +2048,10 @@
         <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>21</v>
@@ -1993,10 +2062,10 @@
         <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
@@ -2007,10 +2076,10 @@
         <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
@@ -2021,10 +2090,10 @@
         <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>39</v>
@@ -2035,10 +2104,10 @@
         <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
@@ -2049,10 +2118,10 @@
         <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
@@ -2063,10 +2132,10 @@
         <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -2077,10 +2146,10 @@
         <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -2091,10 +2160,10 @@
         <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>

--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -20,9 +20,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="129">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="133">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段02300001地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段02310001地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段02320001地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段03670000地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段08120000地號</t>
+  </si>
+  <si>
+    <t>.新北市永和區文化段08120001地號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段08130000地號</t>
+  </si>
+  <si>
+    <t>新北市永和區及人段04970000地號</t>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉白雲段04140000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>192分之16</t>
+  </si>
+  <si>
+    <t>50000分之1507</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>954分之150</t>
+  </si>
+  <si>
+    <t>林德福</t>
+  </si>
+  <si>
+    <t>79年07月04日</t>
+  </si>
+  <si>
+    <t>79年07月04曰</t>
+  </si>
+  <si>
+    <t>92年05月20日</t>
+  </si>
+  <si>
+    <t>76年09月02日</t>
+  </si>
+  <si>
+    <t>86年12月09日</t>
+  </si>
+  <si>
+    <t>52年02月11曰</t>
+  </si>
+  <si>
+    <t>61年08月04日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>(其他原因:合併）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-28</t>
+  </si>
+  <si>
+    <t>tmp2e4a1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,97 +175,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市永和區文化段0230-0001 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0231-0001 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0232-0001 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0367-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0812-0000 地號</t>
-  </si>
-  <si>
-    <t>.新北市永和區文化段0812-0001 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段0813-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市永和區及人段0497-0000 地號</t>
-  </si>
-  <si>
-    <t>宜蘭縣礁溪鄉白雲段0414-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>192分之16</t>
-  </si>
-  <si>
-    <t>50000分之 1507</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>954分之 150</t>
-  </si>
-  <si>
-    <t>林德福</t>
-  </si>
-  <si>
-    <t>林德福，</t>
-  </si>
-  <si>
-    <t>79年07月 04日</t>
-  </si>
-  <si>
-    <t>79年07月 04曰</t>
-  </si>
-  <si>
-    <t>92年05月 20日</t>
-  </si>
-  <si>
-    <t>76年09月 02日</t>
-  </si>
-  <si>
-    <t>86年12月 09日</t>
-  </si>
-  <si>
-    <t>52年02月 11曰</t>
-  </si>
-  <si>
-    <t>61年08月 04日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>(其他原 因:合併）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段01574-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段01575-000 建號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段01576-000 建號</t>
+    <t>新北市永和區文化段01574000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段01575000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段01576000建號</t>
   </si>
   <si>
     <t>新北市永和區文化路</t>
@@ -142,16 +190,16 @@
     <t>曾月桂</t>
   </si>
   <si>
-    <t>87年10月 19曰</t>
-  </si>
-  <si>
-    <t>87年10月 19日</t>
+    <t>87年10月19曰</t>
+  </si>
+  <si>
+    <t>87年10月19日</t>
   </si>
   <si>
     <t>59年06月</t>
   </si>
   <si>
-    <t>第一次登 記</t>
+    <t>第一次登記</t>
   </si>
   <si>
     <t>繼承</t>
@@ -169,7 +217,7 @@
     <t>豐田汽車CAMRY</t>
   </si>
   <si>
-    <t>90年01月 01日</t>
+    <t>90年01月01日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -184,22 +232,22 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行永和分 行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行永和分 行</t>
+    <t>臺灣中小企業銀行永和分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行永和分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>永和郵局（第6 4支局）</t>
+    <t>永和郵局（第64支局）</t>
   </si>
   <si>
     <t>華南商業銀行永和分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行永和分 行</t>
+    <t>國泰世華商業銀行永和分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -211,12 +259,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -229,27 +271,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中美矽晶製品股份有限公司</t>
   </si>
   <si>
@@ -271,15 +292,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-28</t>
-  </si>
-  <si>
-    <t>tmp2e4a1</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -298,22 +310,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字晝及#</t>
-  </si>
-  <si>
-    <t>射 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字晝及#</t>
+  </si>
+  <si>
+    <t>射產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總$</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -352,7 +364,7 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>新20年限期繳費增值分紅终 身保險</t>
+    <t>新20年限期繳費增值分紅终身保險</t>
   </si>
   <si>
     <t>增值分紅終身壽險</t>
@@ -765,13 +777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,239 +805,449 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>908</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>908</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>908</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>908</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>908</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>620</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>908</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2465</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>908</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>908</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2">
         <v>21</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>953.21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>908</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1043,25 +1265,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1069,25 +1291,25 @@
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>90.07</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1095,23 +1317,23 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
         <v>134.6</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1119,25 +1341,25 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>134.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1145,25 +1367,25 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2">
         <v>212</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1181,22 +1403,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1204,22 +1426,22 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1237,19 +1459,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1257,16 +1479,16 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
         <v>58416</v>
@@ -1277,16 +1499,16 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
         <v>280904</v>
@@ -1297,16 +1519,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2">
         <v>274905</v>
@@ -1317,16 +1539,16 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2">
         <v>118453</v>
@@ -1337,16 +1559,16 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2">
         <v>737995</v>
@@ -1357,16 +1579,16 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2">
         <v>3082</v>
@@ -1377,16 +1599,16 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
         <v>2205749</v>
@@ -1407,43 +1629,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1451,10 +1673,10 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2">
         <v>141</v>
@@ -1463,28 +1685,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2">
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>908</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2">
         <v>69</v>
@@ -1495,10 +1717,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2">
         <v>2120</v>
@@ -1507,28 +1729,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2">
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>908</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2">
         <v>70</v>
@@ -1539,10 +1761,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <v>4199</v>
@@ -1551,28 +1773,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2">
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>908</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="N4" s="2">
         <v>71</v>
@@ -1583,10 +1805,10 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2">
         <v>18137</v>
@@ -1595,28 +1817,28 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2">
         <v>1638859.32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
         <v>908</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="N5" s="2">
         <v>73</v>
@@ -1627,10 +1849,10 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2">
         <v>150800</v>
@@ -1639,28 +1861,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2">
         <v>1508000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
         <v>908</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="N6" s="2">
         <v>74</v>
@@ -1681,22 +1903,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1704,14 +1926,14 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1721,22 +1943,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1754,13 +1976,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1768,13 +1990,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1782,13 +2004,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1796,13 +2018,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1810,13 +2032,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1824,13 +2046,13 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1838,13 +2060,13 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1852,13 +2074,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1866,13 +2088,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1880,13 +2102,13 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1894,13 +2116,13 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1908,13 +2130,13 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1922,13 +2144,13 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1936,13 +2158,13 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1950,13 +2172,13 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1964,13 +2186,13 @@
         <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1978,13 +2200,13 @@
         <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1992,13 +2214,13 @@
         <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2006,13 +2228,13 @@
         <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2020,13 +2242,13 @@
         <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2034,13 +2256,13 @@
         <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2048,13 +2270,13 @@
         <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2062,13 +2284,13 @@
         <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2076,13 +2298,13 @@
         <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2090,13 +2312,13 @@
         <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2104,13 +2326,13 @@
         <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2118,13 +2340,13 @@
         <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2132,13 +2354,13 @@
         <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2146,13 +2368,13 @@
         <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2160,13 +2382,13 @@
         <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市永和區文化段02300001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市永和區文化段02310001地號</t>
@@ -109,9 +112,6 @@
     <t>林德福</t>
   </si>
   <si>
-    <t>79年07月04日</t>
-  </si>
-  <si>
     <t>79年07月04曰</t>
   </si>
   <si>
@@ -154,30 +154,15 @@
     <t>tmp2e4a1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>新北市永和區文化段01574000建號</t>
   </si>
   <si>
+    <t>87年10月19曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
     <t>新北市永和區文化段01575000建號</t>
   </si>
   <si>
@@ -190,162 +175,108 @@
     <t>曾月桂</t>
   </si>
   <si>
-    <t>87年10月19曰</t>
-  </si>
-  <si>
     <t>87年10月19日</t>
   </si>
   <si>
     <t>59年06月</t>
   </si>
   <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>豐田汽車CAMRY</t>
+  </si>
+  <si>
+    <t>90年01月01日</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行永和分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>永和郵局（第64支局）</t>
+  </si>
+  <si>
+    <t>華南商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>聯成化學科技股份有限公司</t>
+  </si>
+  <si>
+    <t>凌陽科技股份有限公司</t>
+  </si>
+  <si>
+    <t>彗每</t>
+  </si>
+  <si>
+    <t>碧悠</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字晝及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總$</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>射產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>豐田汽車CAMRY</t>
-  </si>
-  <si>
-    <t>90年01月01日</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行永和分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>永和郵局（第64支局）</t>
-  </si>
-  <si>
-    <t>華南商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>中美矽晶製品股份有限公司</t>
-  </si>
-  <si>
-    <t>聯成化學科技股份有限公司</t>
-  </si>
-  <si>
-    <t>凌陽科技股份有限公司</t>
-  </si>
-  <si>
-    <t>彗每</t>
-  </si>
-  <si>
-    <t>碧悠</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及#</t>
-  </si>
-  <si>
-    <t>射產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>新20年限期繳費增值分紅终身保險</t>
+  </si>
+  <si>
     <t>全球人壽</t>
   </si>
   <si>
@@ -362,9 +293,6 @@
   </si>
   <si>
     <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>新20年限期繳費增值分紅终身保險</t>
   </si>
   <si>
     <t>增值分紅終身壽險</t>
@@ -777,13 +705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,25 +754,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>36</v>
@@ -862,7 +796,7 @@
         <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2">
         <v>908</v>
@@ -871,24 +805,30 @@
         <v>43</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>30</v>
@@ -909,7 +849,7 @@
         <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>908</v>
@@ -918,27 +858,33 @@
         <v>43</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>36</v>
@@ -956,7 +902,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2">
         <v>908</v>
@@ -965,30 +911,36 @@
         <v>43</v>
       </c>
       <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>42</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>39</v>
@@ -1003,7 +955,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="2">
         <v>908</v>
@@ -1012,24 +964,30 @@
         <v>43</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1.33333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>16</v>
+        <v>620</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
@@ -1050,7 +1008,7 @@
         <v>42</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="2">
         <v>908</v>
@@ -1059,30 +1017,36 @@
         <v>43</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>51.6666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>620</v>
+        <v>2465</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>39</v>
@@ -1097,7 +1061,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2">
         <v>908</v>
@@ -1106,30 +1070,36 @@
         <v>43</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.03014</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>74.2951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2465</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>39</v>
@@ -1144,7 +1114,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="2">
         <v>908</v>
@@ -1153,27 +1123,33 @@
         <v>43</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>53</v>
+        <v>953.21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>36</v>
@@ -1191,7 +1167,7 @@
         <v>42</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="2">
         <v>908</v>
@@ -1200,54 +1176,13 @@
         <v>43</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>953.21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="2">
-        <v>908</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="2">
-        <v>22</v>
+      <c r="P9" s="2">
+        <v>0.157232704402516</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>149.875786163522</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1267,46 +1202,44 @@
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>90.07</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>134.6</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2">
-        <v>90.07</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
@@ -1314,23 +1247,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>134.6</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>39</v>
@@ -1338,53 +1273,27 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2">
+        <v>212</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="2">
-        <v>134.6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2">
-        <v>212</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1394,6 +1303,419 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1">
+        <v>58416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2">
+        <v>280904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2">
+        <v>274905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2">
+        <v>118453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>737995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2205749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2120</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2">
+        <v>21200</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>908</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4199</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2">
+        <v>41990</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2">
+        <v>908</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18137</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1638859.32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2">
+        <v>908</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2">
+        <v>150800</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1508000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2">
+        <v>908</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1403,562 +1725,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2000</v>
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2">
-        <v>58416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2">
-        <v>280904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>58</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2">
-        <v>274905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>59</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="2">
-        <v>118453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="2">
-        <v>737995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>62</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2205749</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2">
-        <v>141</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1410</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2">
-        <v>908</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2120</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="2">
-        <v>21200</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2">
-        <v>908</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>71</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4199</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="2">
-        <v>41990</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2">
-        <v>908</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>73</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2">
-        <v>18137</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1638859.32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2">
-        <v>908</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>74</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2">
-        <v>150800</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1508000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="2">
-        <v>908</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="2">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>90</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>91</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +1767,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1976,419 +1775,405 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
+        <v>109</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>126</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市永和區文化段02300001地號</t>
+  </si>
+  <si>
     <t>新北市永和區文化段02310001地號</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>林德福</t>
   </si>
   <si>
+    <t>79年07月04日</t>
+  </si>
+  <si>
     <t>79年07月04曰</t>
   </si>
   <si>
@@ -157,30 +163,30 @@
     <t>新北市永和區文化段01574000建號</t>
   </si>
   <si>
+    <t>新北市永和區文化段01575000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化段01576000建號</t>
+  </si>
+  <si>
+    <t>新北市永和區文化路</t>
+  </si>
+  <si>
+    <t>曾月桂</t>
+  </si>
+  <si>
     <t>87年10月19曰</t>
   </si>
   <si>
+    <t>87年10月19日</t>
+  </si>
+  <si>
+    <t>59年06月01日</t>
+  </si>
+  <si>
     <t>第一次登記</t>
   </si>
   <si>
-    <t>新北市永和區文化段01575000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化段01576000建號</t>
-  </si>
-  <si>
-    <t>新北市永和區文化路</t>
-  </si>
-  <si>
-    <t>曾月桂</t>
-  </si>
-  <si>
-    <t>87年10月19日</t>
-  </si>
-  <si>
-    <t>59年06月</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -224,6 +230,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>中美矽晶製品股份有限公司</t>
   </si>
   <si>
     <t>聯成化學科技股份有限公司</t>
@@ -705,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,425 +772,478 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>908</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>908</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>908</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <v>908</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.33333333333333</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>620</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
         <v>908</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q6" s="2">
-        <v>51.6666666666667</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2465</v>
+        <v>620</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
         <v>908</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>0.03014</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>74.2951</v>
+        <v>51.6666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>53</v>
+        <v>2465</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
         <v>908</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.5</v>
+        <v>0.03014</v>
       </c>
       <c r="Q8" s="2">
-        <v>26.5</v>
+        <v>74.2951</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>953.21</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2">
         <v>908</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>953.21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="2">
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>908</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="2">
         <v>22</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10" s="2">
         <v>0.157232704402516</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10" s="2">
         <v>149.875786163522</v>
       </c>
     </row>
@@ -1192,109 +1254,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2">
         <v>90.07</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
-        <v>134.6</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>908</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>90.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>134.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>908</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>134.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
-        <v>212</v>
+        <v>134.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>908</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>134.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2">
+        <v>212</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>908</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1303,419 +1528,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1">
-        <v>58416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2">
-        <v>280904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>58</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2">
-        <v>274905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>59</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2">
-        <v>118453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2">
-        <v>737995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>61</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2205749</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>70</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2120</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2">
-        <v>21200</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2">
-        <v>908</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4199</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="2">
-        <v>41990</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2">
-        <v>908</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2">
-        <v>18137</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1638859.32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2">
-        <v>908</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>74</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2">
-        <v>150800</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1508000</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2">
-        <v>908</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="2">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1725,21 +1537,521 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1">
+        <v>58416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
+        <v>58416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>280904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <v>274905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>118453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>737995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2205749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>141</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1410</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>908</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2120</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21200</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>908</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4199</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>41990</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
+        <v>908</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18137</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1638859.32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2">
+        <v>908</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2">
+        <v>150800</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1508000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>908</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="2">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -1747,17 +2059,34 @@
       <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +2096,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1775,80 +2104,80 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -1856,13 +2185,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
@@ -1870,111 +2199,111 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
@@ -1982,13 +2311,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
@@ -1996,13 +2325,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>50</v>
@@ -2010,13 +2339,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>50</v>
@@ -2024,13 +2353,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
@@ -2038,55 +2367,55 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
@@ -2094,13 +2423,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>50</v>
@@ -2108,13 +2437,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>50</v>
@@ -2122,13 +2451,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>50</v>
@@ -2136,13 +2465,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
@@ -2150,13 +2479,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
@@ -2164,15 +2493,29 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>124</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
     </row>

--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>繼承</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>豐田汽車CAMRY</t>
@@ -1529,38 +1532,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1569,13 +1593,34 @@
         <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>908</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1593,13 +1638,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1613,13 +1658,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1633,13 +1678,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1653,13 +1698,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1673,13 +1718,13 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>50</v>
@@ -1693,13 +1738,13 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -1713,13 +1758,13 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>50</v>
@@ -1733,13 +1778,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1769,13 +1814,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1807,7 +1852,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -1819,13 +1864,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -1851,7 +1896,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -1863,13 +1908,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -1895,7 +1940,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -1907,13 +1952,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -1939,7 +1984,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
@@ -1951,13 +1996,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2">
         <v>1638859.32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
@@ -1983,7 +2028,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -1995,13 +2040,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>1508000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>43</v>
@@ -2037,14 +2082,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2054,16 +2099,16 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2071,22 +2116,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2104,10 +2149,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2118,10 +2163,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2132,10 +2177,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -2146,10 +2191,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -2160,10 +2205,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -2174,10 +2219,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -2188,10 +2233,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
@@ -2202,10 +2247,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>50</v>
@@ -2216,10 +2261,10 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2230,10 +2275,10 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -2244,10 +2289,10 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
@@ -2258,10 +2303,10 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -2272,10 +2317,10 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -2286,13 +2331,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2300,10 +2345,10 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
@@ -2314,10 +2359,10 @@
         <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
@@ -2328,10 +2373,10 @@
         <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>50</v>
@@ -2342,10 +2387,10 @@
         <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>50</v>
@@ -2356,10 +2401,10 @@
         <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
@@ -2370,10 +2415,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>50</v>
@@ -2384,10 +2429,10 @@
         <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -2398,10 +2443,10 @@
         <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
@@ -2412,10 +2457,10 @@
         <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
@@ -2426,10 +2471,10 @@
         <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>50</v>
@@ -2440,10 +2485,10 @@
         <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>50</v>
@@ -2454,10 +2499,10 @@
         <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>50</v>
@@ -2468,10 +2513,10 @@
         <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
@@ -2482,10 +2527,10 @@
         <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
@@ -2496,10 +2541,10 @@
         <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
@@ -2510,10 +2555,10 @@
         <v>124</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>50</v>

--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -190,6 +190,9 @@
     <t>繼承</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>90年01月01日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣中小企業銀行永和分行</t>
@@ -1339,7 +1345,7 @@
         <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>43</v>
@@ -1392,7 +1398,7 @@
         <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>43</v>
@@ -1445,7 +1451,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>43</v>
@@ -1498,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>43</v>
@@ -1543,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1584,7 +1590,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1593,7 +1599,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -1602,7 +1608,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -1638,13 +1644,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1658,13 +1664,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1678,13 +1684,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1698,13 +1704,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1718,13 +1724,13 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>50</v>
@@ -1738,13 +1744,13 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -1758,13 +1764,13 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>50</v>
@@ -1778,13 +1784,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1814,13 +1820,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1852,7 +1858,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -1864,13 +1870,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -1896,7 +1902,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -1908,13 +1914,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -1940,7 +1946,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -1952,13 +1958,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -1984,7 +1990,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
@@ -1996,13 +2002,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2">
         <v>1638859.32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
@@ -2028,7 +2034,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -2040,13 +2046,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>1508000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>43</v>
@@ -2082,14 +2088,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2099,16 +2105,16 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2116,22 +2122,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2149,10 +2155,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2163,10 +2169,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2177,10 +2183,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -2191,10 +2197,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -2205,10 +2211,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -2219,10 +2225,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -2233,10 +2239,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
@@ -2247,10 +2253,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>50</v>
@@ -2261,10 +2267,10 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2275,10 +2281,10 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -2289,10 +2295,10 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
@@ -2303,10 +2309,10 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -2317,10 +2323,10 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -2331,13 +2337,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2345,10 +2351,10 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
@@ -2359,10 +2365,10 @@
         <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
@@ -2373,10 +2379,10 @@
         <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>50</v>
@@ -2387,10 +2393,10 @@
         <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>50</v>
@@ -2401,10 +2407,10 @@
         <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
@@ -2415,10 +2421,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>50</v>
@@ -2429,10 +2435,10 @@
         <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -2443,10 +2449,10 @@
         <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
@@ -2457,10 +2463,10 @@
         <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
@@ -2471,10 +2477,10 @@
         <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>50</v>
@@ -2485,10 +2491,10 @@
         <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>50</v>
@@ -2499,10 +2505,10 @@
         <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>50</v>
@@ -2513,10 +2519,10 @@
         <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
@@ -2527,10 +2533,10 @@
         <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
@@ -2541,10 +2547,10 @@
         <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
@@ -2555,10 +2561,10 @@
         <v>124</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>50</v>

--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="118">
   <si>
     <t>name</t>
   </si>
@@ -205,40 +205,49 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣中小企業銀行永和分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>永和郵局（第64支局）</t>
+  </si>
+  <si>
+    <t>華南商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行永和分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>永和郵局（第64支局）</t>
-  </si>
-  <si>
-    <t>華南商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中美矽晶製品股份有限公司</t>
@@ -1636,13 +1645,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1653,24 +1662,45 @@
         <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1">
-        <v>58416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1678,19 +1708,40 @@
       <c r="F2" s="2">
         <v>58416</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>908</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1698,19 +1749,40 @@
       <c r="F3" s="2">
         <v>280904</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>908</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1718,19 +1790,40 @@
       <c r="F4" s="2">
         <v>274905</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>908</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>50</v>
@@ -1738,19 +1831,40 @@
       <c r="F5" s="2">
         <v>118453</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>908</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -1758,19 +1872,40 @@
       <c r="F6" s="2">
         <v>737995</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>908</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>50</v>
@@ -1778,25 +1913,67 @@
       <c r="F7" s="2">
         <v>3082</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>908</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>2205749</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>908</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1820,13 +1997,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1858,7 +2035,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -1870,13 +2047,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2">
         <v>1410</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -1902,7 +2079,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -1914,13 +2091,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2">
         <v>21200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -1946,7 +2123,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -1958,13 +2135,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2">
         <v>41990</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -1990,7 +2167,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
@@ -2002,13 +2179,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G5" s="2">
         <v>1638859.32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
@@ -2034,7 +2211,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -2046,13 +2223,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2">
         <v>1508000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>43</v>
@@ -2088,14 +2265,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2105,16 +2282,16 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2122,22 +2299,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2155,10 +2332,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2169,10 +2346,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2183,10 +2360,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -2197,10 +2374,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -2211,10 +2388,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -2225,10 +2402,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -2239,10 +2416,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
@@ -2253,10 +2430,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>50</v>
@@ -2267,10 +2444,10 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2281,10 +2458,10 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -2295,10 +2472,10 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
@@ -2309,10 +2486,10 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -2323,10 +2500,10 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -2337,13 +2514,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2351,10 +2528,10 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
@@ -2365,10 +2542,10 @@
         <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
@@ -2379,10 +2556,10 @@
         <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>50</v>
@@ -2393,10 +2570,10 @@
         <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>50</v>
@@ -2407,10 +2584,10 @@
         <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
@@ -2421,10 +2598,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>50</v>
@@ -2435,10 +2612,10 @@
         <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -2449,10 +2626,10 @@
         <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
@@ -2463,10 +2640,10 @@
         <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
@@ -2477,10 +2654,10 @@
         <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>50</v>
@@ -2491,10 +2668,10 @@
         <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>50</v>
@@ -2505,10 +2682,10 @@
         <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>50</v>
@@ -2519,10 +2696,10 @@
         <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
@@ -2533,10 +2710,10 @@
         <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
@@ -2547,10 +2724,10 @@
         <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
@@ -2561,10 +2738,10 @@
         <v>124</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>50</v>

--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -12,15 +12,14 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="109">
   <si>
     <t>name</t>
   </si>
@@ -269,33 +268,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>射產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -2257,73 +2229,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>89</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2332,10 +2237,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -2346,10 +2251,10 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
@@ -2360,10 +2265,10 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -2374,10 +2279,10 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -2388,10 +2293,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -2402,10 +2307,10 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -2416,10 +2321,10 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
@@ -2430,10 +2335,10 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>50</v>
@@ -2444,10 +2349,10 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2458,10 +2363,10 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -2472,10 +2377,10 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
@@ -2486,10 +2391,10 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -2500,10 +2405,10 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -2514,13 +2419,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2528,10 +2433,10 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
@@ -2542,10 +2447,10 @@
         <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
@@ -2556,10 +2461,10 @@
         <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>50</v>
@@ -2570,10 +2475,10 @@
         <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>50</v>
@@ -2584,10 +2489,10 @@
         <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
@@ -2598,10 +2503,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>50</v>
@@ -2612,10 +2517,10 @@
         <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -2626,10 +2531,10 @@
         <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
@@ -2640,10 +2545,10 @@
         <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
@@ -2654,10 +2559,10 @@
         <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>50</v>
@@ -2668,10 +2573,10 @@
         <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>50</v>
@@ -2682,10 +2587,10 @@
         <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>50</v>
@@ -2696,10 +2601,10 @@
         <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
@@ -2710,10 +2615,10 @@
         <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
@@ -2724,10 +2629,10 @@
         <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
@@ -2738,10 +2643,10 @@
         <v>124</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>50</v>

--- a/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
+++ b/legislator/property/output/normal/林德福_2011-11-28_財產申報表_tmp2e4a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -270,30 +270,33 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
+    <t>國寶人壽</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
+    <t>幸福人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>新20年限期繳費增值分紅终身保險</t>
   </si>
   <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
-    <t>國寶人壽</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
-    <t>幸福人壽</t>
-  </si>
-  <si>
-    <t>安聯人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>增值分紅終身壽險</t>
   </si>
   <si>
@@ -346,6 +349,9 @@
   </si>
   <si>
     <t>曾月麁</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2229,66 +2235,150 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2">
+        <v>908</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>908</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2">
+        <v>908</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>98</v>
       </c>
@@ -2296,13 +2386,34 @@
         <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>908</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>99</v>
       </c>
@@ -2310,13 +2421,34 @@
         <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>908</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -2324,13 +2456,34 @@
         <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2">
+        <v>908</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -2338,27 +2491,69 @@
         <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
+        <v>908</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
+        <v>908</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>103</v>
       </c>
@@ -2366,13 +2561,34 @@
         <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2">
+        <v>908</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>104</v>
       </c>
@@ -2380,27 +2596,69 @@
         <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2">
+        <v>908</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2">
+        <v>908</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>106</v>
       </c>
@@ -2408,13 +2666,34 @@
         <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2">
+        <v>908</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>107</v>
       </c>
@@ -2422,13 +2701,34 @@
         <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <v>908</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>108</v>
       </c>
@@ -2436,13 +2736,34 @@
         <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>908</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>110</v>
       </c>
@@ -2450,13 +2771,34 @@
         <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>908</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>111</v>
       </c>
@@ -2464,13 +2806,34 @@
         <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>908</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>112</v>
       </c>
@@ -2478,13 +2841,34 @@
         <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <v>908</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>113</v>
       </c>
@@ -2492,13 +2876,34 @@
         <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>908</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>114</v>
       </c>
@@ -2506,13 +2911,34 @@
         <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>908</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>115</v>
       </c>
@@ -2520,13 +2946,34 @@
         <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>908</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>116</v>
       </c>
@@ -2534,13 +2981,34 @@
         <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>908</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>117</v>
       </c>
@@ -2548,13 +3016,34 @@
         <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>908</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>118</v>
       </c>
@@ -2562,13 +3051,34 @@
         <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>908</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>119</v>
       </c>
@@ -2576,13 +3086,34 @@
         <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>908</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>120</v>
       </c>
@@ -2590,13 +3121,34 @@
         <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>908</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>121</v>
       </c>
@@ -2604,13 +3156,34 @@
         <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>908</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>122</v>
       </c>
@@ -2618,13 +3191,34 @@
         <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>908</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>123</v>
       </c>
@@ -2632,13 +3226,34 @@
         <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <v>908</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>124</v>
       </c>
@@ -2646,10 +3261,31 @@
         <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <v>908</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="2">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
